--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1402,28 +1402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.89988405606935</v>
+        <v>61.01023332372679</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.90697867612096</v>
+        <v>83.47689281502429</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.52147053582075</v>
+        <v>75.50997532533296</v>
       </c>
       <c r="AD2" t="n">
-        <v>48899.88405606936</v>
+        <v>61010.23332372679</v>
       </c>
       <c r="AE2" t="n">
-        <v>66906.97867612095</v>
+        <v>83476.89281502429</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798033425061242e-06</v>
+        <v>1.257814165960478e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.236689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>60521.47053582075</v>
+        <v>75509.97532533295</v>
       </c>
     </row>
   </sheetData>
@@ -1699,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.35792049191887</v>
+        <v>59.03638127861537</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.79719610101995</v>
+        <v>80.77618136669777</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.61304264858826</v>
+        <v>73.06701598716155</v>
       </c>
       <c r="AD2" t="n">
-        <v>47357.92049191887</v>
+        <v>59036.38127861536</v>
       </c>
       <c r="AE2" t="n">
-        <v>64797.19610101994</v>
+        <v>80776.18136669777</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.923159426171296e-06</v>
+        <v>1.31966103340828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.271412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>58613.04264858826</v>
+        <v>73067.01598716155</v>
       </c>
     </row>
   </sheetData>
@@ -1996,28 +1996,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.22047393182989</v>
+        <v>66.06201805963975</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.87264742002062</v>
+        <v>90.38896755971017</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.96760878907272</v>
+        <v>81.76237135754607</v>
       </c>
       <c r="AD2" t="n">
-        <v>45220.47393182989</v>
+        <v>66062.01805963975</v>
       </c>
       <c r="AE2" t="n">
-        <v>61872.64742002062</v>
+        <v>90388.96755971017</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.462927436468662e-06</v>
+        <v>1.376434407260416e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.714120370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>55967.60878907272</v>
+        <v>81762.37135754607</v>
       </c>
     </row>
   </sheetData>
@@ -2293,28 +2293,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.42200588859028</v>
+        <v>56.3085505887699</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.14839233422249</v>
+        <v>77.04384307345644</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.21703699567367</v>
+        <v>69.69088682225629</v>
       </c>
       <c r="AD2" t="n">
-        <v>45422.00588859028</v>
+        <v>56308.5505887699</v>
       </c>
       <c r="AE2" t="n">
-        <v>62148.39233422249</v>
+        <v>77043.84307345645</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.849784171434768e-06</v>
+        <v>1.390743005528025e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.450810185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>56217.03699567368</v>
+        <v>69690.88682225629</v>
       </c>
     </row>
   </sheetData>
@@ -2590,28 +2590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.30093001971799</v>
+        <v>66.34750782526238</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.03341627468387</v>
+        <v>90.77958725195442</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.68145514252444</v>
+        <v>82.11571085460082</v>
       </c>
       <c r="AD2" t="n">
-        <v>56300.93001971799</v>
+        <v>66347.50782526238</v>
       </c>
       <c r="AE2" t="n">
-        <v>77033.41627468387</v>
+        <v>90779.58725195442</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.886660449254846e-06</v>
+        <v>1.3108443014183e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.096064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>69681.45514252444</v>
+        <v>82115.71085460082</v>
       </c>
     </row>
   </sheetData>
@@ -2887,28 +2887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.66777928901328</v>
+        <v>59.45975827058438</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.22115857720965</v>
+        <v>81.35546444518415</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.99654274108563</v>
+        <v>73.59101310166628</v>
       </c>
       <c r="AD2" t="n">
-        <v>47667.77928901328</v>
+        <v>59459.75827058438</v>
       </c>
       <c r="AE2" t="n">
-        <v>65221.15857720965</v>
+        <v>81355.46444518416</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.922240814837132e-06</v>
+        <v>1.308832143815213e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.251157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>58996.54274108563</v>
+        <v>73591.01310166628</v>
       </c>
     </row>
   </sheetData>
@@ -3184,28 +3184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.45262275949922</v>
+        <v>76.8812085285043</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.6092130903495</v>
+        <v>105.1922612681999</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.1068601217482</v>
+        <v>95.15285949105548</v>
       </c>
       <c r="AD2" t="n">
-        <v>57452.62275949922</v>
+        <v>76881.2085285043</v>
       </c>
       <c r="AE2" t="n">
-        <v>78609.2130903495</v>
+        <v>105192.2612681999</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.419512761898882e-06</v>
+        <v>1.242459474928997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.440393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>71106.86012174819</v>
+        <v>95152.85949105548</v>
       </c>
     </row>
   </sheetData>
@@ -3481,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.2563385448821</v>
+        <v>57.56637786551836</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.28996308271939</v>
+        <v>78.7648578449259</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.24965783413901</v>
+        <v>71.24765035939664</v>
       </c>
       <c r="AD2" t="n">
-        <v>46256.3385448821</v>
+        <v>57566.37786551836</v>
       </c>
       <c r="AE2" t="n">
-        <v>63289.96308271939</v>
+        <v>78764.85784492589</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.957681841242605e-06</v>
+        <v>1.363696025413041e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.329282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>57249.65783413901</v>
+        <v>71247.65035939665</v>
       </c>
     </row>
   </sheetData>
@@ -3778,28 +3778,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.8118954361932</v>
+        <v>58.37252135617705</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.05010053085111</v>
+        <v>79.86785893338535</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.93724883108089</v>
+        <v>72.24538257204564</v>
       </c>
       <c r="AD2" t="n">
-        <v>46811.8954361932</v>
+        <v>58372.52135617704</v>
       </c>
       <c r="AE2" t="n">
-        <v>64050.10053085111</v>
+        <v>79867.85893338535</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.989905632160415e-06</v>
+        <v>1.343951309651666e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.271412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>57937.24883108088</v>
+        <v>72245.38257204564</v>
       </c>
     </row>
   </sheetData>
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.45708002769003</v>
+        <v>60.46468412103883</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.30111466935766</v>
+        <v>82.73044832797481</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.97342933952726</v>
+        <v>74.83477045248583</v>
       </c>
       <c r="AD2" t="n">
-        <v>48457.08002769003</v>
+        <v>60464.68412103883</v>
       </c>
       <c r="AE2" t="n">
-        <v>66301.11466935766</v>
+        <v>82730.44832797481</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.848671472164224e-06</v>
+        <v>1.275855550540002e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.236689814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>59973.42933952726</v>
+        <v>74834.77045248583</v>
       </c>
     </row>
   </sheetData>
@@ -4372,28 +4372,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.70712187316692</v>
+        <v>56.74235401625524</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.53850060274956</v>
+        <v>77.63739206099812</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.56991387857304</v>
+        <v>70.22778832747841</v>
       </c>
       <c r="AD2" t="n">
-        <v>45707.12187316692</v>
+        <v>56742.35401625524</v>
       </c>
       <c r="AE2" t="n">
-        <v>62538.50060274955</v>
+        <v>77637.39206099813</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.895264376870283e-06</v>
+        <v>1.382153920521646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.404513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>56569.91387857304</v>
+        <v>70227.78832747841</v>
       </c>
     </row>
   </sheetData>
@@ -4669,28 +4669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.20226179068322</v>
+        <v>55.93285165212674</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.8477287650408</v>
+        <v>76.52979521367423</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.94506833555062</v>
+        <v>69.22589896874084</v>
       </c>
       <c r="AD2" t="n">
-        <v>45202.26179068322</v>
+        <v>55932.85165212674</v>
       </c>
       <c r="AE2" t="n">
-        <v>61847.7287650408</v>
+        <v>76529.79521367424</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.625558039378291e-06</v>
+        <v>1.386108176697771e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>55945.06833555062</v>
+        <v>69225.89896874083</v>
       </c>
     </row>
   </sheetData>
@@ -7211,28 +7211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.51847447303278</v>
+        <v>65.96390402424888</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.28038490735023</v>
+        <v>90.25472360800269</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.3364323828749</v>
+        <v>81.64093946017694</v>
       </c>
       <c r="AD2" t="n">
-        <v>45518.47447303278</v>
+        <v>65963.90402424887</v>
       </c>
       <c r="AE2" t="n">
-        <v>62280.38490735024</v>
+        <v>90254.72360800269</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219117561793383e-06</v>
+        <v>1.351946459512244e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.87037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>56336.4323828749</v>
+        <v>81640.93946017693</v>
       </c>
     </row>
   </sheetData>
@@ -7508,28 +7508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.75147172084746</v>
+        <v>88.69097505690776</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.43704082618002</v>
+        <v>121.3509048424816</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.32866359648096</v>
+        <v>109.7693448014116</v>
       </c>
       <c r="AD2" t="n">
-        <v>69751.47172084746</v>
+        <v>88690.97505690776</v>
       </c>
       <c r="AE2" t="n">
-        <v>95437.04082618002</v>
+        <v>121350.9048424816</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.719369720710804e-06</v>
+        <v>1.122514813154497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>86328.66359648097</v>
+        <v>109769.3448014116</v>
       </c>
     </row>
   </sheetData>
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.74168523417168</v>
+        <v>58.17969018930452</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.95403583498982</v>
+        <v>79.6040188237598</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.85035241496491</v>
+        <v>72.00672299218074</v>
       </c>
       <c r="AD2" t="n">
-        <v>46741.68523417167</v>
+        <v>58179.69018930452</v>
       </c>
       <c r="AE2" t="n">
-        <v>63954.03583498982</v>
+        <v>79604.0188237598</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.933277931863267e-06</v>
+        <v>1.345456797436792e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.311921296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>57850.35241496491</v>
+        <v>72006.72299218074</v>
       </c>
     </row>
   </sheetData>
@@ -8102,28 +8102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.0786995653587</v>
+        <v>59.98027892346242</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.78339782782832</v>
+        <v>82.06766376620203</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.50512266673317</v>
+        <v>74.23524111906448</v>
       </c>
       <c r="AD2" t="n">
-        <v>48078.6995653587</v>
+        <v>59980.27892346242</v>
       </c>
       <c r="AE2" t="n">
-        <v>65783.39782782832</v>
+        <v>82067.66376620204</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.879428587608186e-06</v>
+        <v>1.290850634342901e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>59505.12266673317</v>
+        <v>74235.24111906448</v>
       </c>
     </row>
   </sheetData>
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.61105734227408</v>
+        <v>112.9210440313817</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1368255489421</v>
+        <v>154.5035541685403</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9574513211487</v>
+        <v>139.7579518058373</v>
       </c>
       <c r="AD2" t="n">
-        <v>85611.05734227409</v>
+        <v>112921.0440313817</v>
       </c>
       <c r="AE2" t="n">
-        <v>117136.8255489421</v>
+        <v>154503.5541685403</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646429462953115e-06</v>
+        <v>9.119443361021545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>105957.4513211487</v>
+        <v>139757.9518058373</v>
       </c>
     </row>
   </sheetData>
@@ -8696,28 +8696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.23680126582105</v>
+        <v>56.13608909473545</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.89498719869845</v>
+        <v>76.8078736488545</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.98781649062764</v>
+        <v>69.47743798835312</v>
       </c>
       <c r="AD2" t="n">
-        <v>45236.80126582105</v>
+        <v>56136.08909473545</v>
       </c>
       <c r="AE2" t="n">
-        <v>61894.98719869845</v>
+        <v>76807.8736488545</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.765018522061036e-06</v>
+        <v>1.393109073635006e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.514467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>55987.81649062764</v>
+        <v>69477.43798835312</v>
       </c>
     </row>
   </sheetData>
@@ -8993,28 +8993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.82479263789729</v>
+        <v>57.00084862065012</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.69950293432133</v>
+        <v>77.99107578270811</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.71555037358785</v>
+        <v>70.54771697118673</v>
       </c>
       <c r="AD2" t="n">
-        <v>45824.79263789729</v>
+        <v>57000.84862065012</v>
       </c>
       <c r="AE2" t="n">
-        <v>62699.50293432133</v>
+        <v>77991.07578270811</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.973818251244617e-06</v>
+        <v>1.381641791782694e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.349537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>56715.55037358784</v>
+        <v>70547.71697118673</v>
       </c>
     </row>
   </sheetData>
